--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/163.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/163.xlsx
@@ -479,13 +479,13 @@
         <v>-1.536500697823512</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.49620309823241</v>
+        <v>-13.70484203631816</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.547368894399854</v>
+        <v>-1.405697085349537</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.65814533432292</v>
+        <v>-10.93417035513504</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.504340326511206</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.8285119289611</v>
+        <v>-14.01882164306843</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.368004345468207</v>
+        <v>-1.233140533895587</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.57805971784009</v>
+        <v>-10.86076181310148</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.461295409357678</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.40775468358759</v>
+        <v>-14.5615368727665</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.215884878750192</v>
+        <v>-1.082160097524802</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.26829583260485</v>
+        <v>-10.52626656779822</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.392215187061195</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.06271022554778</v>
+        <v>-15.1920229007155</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.181648506819078</v>
+        <v>-1.035970453099192</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.28090372024143</v>
+        <v>-10.52284947675653</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.266300391732073</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.71553172214476</v>
+        <v>-15.82182812891674</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9558979289191958</v>
+        <v>-0.8237704086404963</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.841460575358894</v>
+        <v>-10.09270186689162</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-1.059334495776181</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.46824748942412</v>
+        <v>-16.5500089206707</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8875692003882274</v>
+        <v>-0.7481361751238448</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.72780629438987</v>
+        <v>-9.967670374753133</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.7513012859832423</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.14040631731833</v>
+        <v>-17.21453493600819</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7365233025032337</v>
+        <v>-0.601541660205038</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.241636720665214</v>
+        <v>-9.497997102609052</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3329519812227344</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.96073073647237</v>
+        <v>-18.02407129762064</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7543026497622978</v>
+        <v>-0.6238771288530227</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.049716653308352</v>
+        <v>-9.31791247702111</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1912089759216729</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.59475168618863</v>
+        <v>-18.63626737849975</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6305411109994613</v>
+        <v>-0.4817470892032445</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.744757643216026</v>
+        <v>-9.018412957213785</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.8004293381554379</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.25832196341868</v>
+        <v>-19.29735011818986</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4034551182097226</v>
+        <v>-0.2537315429117433</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.387259221819855</v>
+        <v>-8.659592213230599</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.455713651194357</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.87650122669646</v>
+        <v>-19.91157550600944</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.621284852890361</v>
+        <v>-0.4631822037736769</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.859246648213042</v>
+        <v>-8.13084647066465</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.103869246503421</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.71939677594962</v>
+        <v>-20.72336374371067</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3700828382661628</v>
+        <v>-0.2290394597522479</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.234835448782601</v>
+        <v>-7.507823055335431</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.683605060708177</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.44803579830305</v>
+        <v>-21.46577586865358</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1662880522318549</v>
+        <v>-0.01420786242236486</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.964937625700418</v>
+        <v>-7.231274342409652</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>3.136481381885525</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.30867141790675</v>
+        <v>-22.32622819601751</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01477083144455908</v>
+        <v>0.1461335704802543</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.341482164377423</v>
+        <v>-6.588389903669534</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.415815916208173</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.33099697760577</v>
+        <v>-23.35762672158585</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2585833595878395</v>
+        <v>0.4212290377906024</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.913887553566649</v>
+        <v>-6.179255439865595</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.49496440204591</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.03143517963812</v>
+        <v>-24.05133547995754</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4071809968414304</v>
+        <v>0.5670772914474308</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.692627635541479</v>
+        <v>-5.976429484241574</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.370006666152808</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.96170875805696</v>
+        <v>-24.97460467635606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6531853672374632</v>
+        <v>0.8290542713103695</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.160386248116788</v>
+        <v>-5.444070266091309</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.057351364762928</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.8095531977843</v>
+        <v>-25.81107190491394</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7310845691457333</v>
+        <v>0.9162621005391068</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.986088420384889</v>
+        <v>-5.293796814073978</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.589575239424923</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.5508917538942</v>
+        <v>-26.55343166064549</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8810438058948636</v>
+        <v>1.064427691798921</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.665340093065443</v>
+        <v>-4.980105237986221</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.00915951432761</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.18552804184403</v>
+        <v>-27.18945573269655</v>
       </c>
       <c r="F21" t="n">
-        <v>1.106231414772552</v>
+        <v>1.300246250584091</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.368563772249196</v>
+        <v>-4.701605771937024</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.362217439342781</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.78770851104922</v>
+        <v>-27.78937123351012</v>
       </c>
       <c r="F22" t="n">
-        <v>1.184981616365534</v>
+        <v>1.39558439987754</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.782591573962062</v>
+        <v>-4.088768168218668</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6935455074479188</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.19964472766129</v>
+        <v>-28.19807365132028</v>
       </c>
       <c r="F23" t="n">
-        <v>1.343319926933369</v>
+        <v>1.567329228555302</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.728572732437101</v>
+        <v>-4.054413965561979</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.04367821618668345</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.51891362475962</v>
+        <v>-28.51569291826056</v>
       </c>
       <c r="F24" t="n">
-        <v>1.238948088679129</v>
+        <v>1.458322715095091</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.508543490879052</v>
+        <v>-3.815728192454471</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.553092187576636</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.78472664935519</v>
+        <v>-28.79069673945101</v>
       </c>
       <c r="F25" t="n">
-        <v>1.544731913850483</v>
+        <v>1.760309772442345</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.307340980807406</v>
+        <v>-3.594834858908869</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.06996961450245</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.77768299042634</v>
+        <v>-28.79606458361612</v>
       </c>
       <c r="F26" t="n">
-        <v>1.459841422224731</v>
+        <v>1.672434235768679</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.452102573328371</v>
+        <v>-3.726255394834115</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.487693970977829</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.93746145430676</v>
+        <v>-28.95651075494147</v>
       </c>
       <c r="F27" t="n">
-        <v>1.364319980691498</v>
+        <v>1.589795620231704</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.174296999329786</v>
+        <v>-3.437818870928048</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.795064193496467</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.77137250045662</v>
+        <v>-28.78197726575842</v>
       </c>
       <c r="F28" t="n">
-        <v>1.603359245975733</v>
+        <v>1.819329873652846</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.273523562567228</v>
+        <v>-3.521216840029843</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.987446764884868</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.78947915528673</v>
+        <v>-28.79911509017824</v>
       </c>
       <c r="F29" t="n">
-        <v>1.454918716356242</v>
+        <v>1.670418021131054</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.229716717258813</v>
+        <v>-3.471714842985277</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.065575050450065</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.58641753821156</v>
+        <v>-28.59415508919102</v>
       </c>
       <c r="F30" t="n">
-        <v>1.489508580464083</v>
+        <v>1.71590068120321</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.202183604382662</v>
+        <v>-3.44890805143499</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.032290261343476</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.19070268482039</v>
+        <v>-28.19082051554597</v>
       </c>
       <c r="F31" t="n">
-        <v>1.38230880479603</v>
+        <v>1.604118599540553</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.557744364958259</v>
+        <v>-3.785720634341235</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.894739668701184</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.13676239711248</v>
+        <v>-28.12768943124316</v>
       </c>
       <c r="F32" t="n">
-        <v>1.38018785173567</v>
+        <v>1.597362971274222</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.791991847402422</v>
+        <v>-4.013565980695794</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.665078150409041</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.56597727012175</v>
+        <v>-27.55313372103401</v>
       </c>
       <c r="F33" t="n">
-        <v>1.31564279872596</v>
+        <v>1.53158724179739</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.122651047973055</v>
+        <v>-4.329443971358119</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.360916290043566</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.96564281561724</v>
+        <v>-26.96096886350274</v>
       </c>
       <c r="F34" t="n">
-        <v>1.401554489973367</v>
+        <v>1.613257026924078</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.070334205817518</v>
+        <v>-4.262791057590891</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.005351201319367</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.70547257354646</v>
+        <v>-26.71564529285448</v>
       </c>
       <c r="F35" t="n">
-        <v>1.205235408861685</v>
+        <v>1.413677962404805</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.372792586067074</v>
+        <v>-4.567815529197425</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.6250117387616926</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.81151704321056</v>
+        <v>-25.82378453097326</v>
       </c>
       <c r="F36" t="n">
-        <v>1.136762664999457</v>
+        <v>1.34195832743783</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.536446371588649</v>
+        <v>-4.745046032765871</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.2475913160437224</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.24155673129886</v>
+        <v>-25.27845084070684</v>
       </c>
       <c r="F37" t="n">
-        <v>1.042524269144713</v>
+        <v>1.241055949436647</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.76642576330641</v>
+        <v>-4.976347747070646</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.1011912050527638</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.82179131758744</v>
+        <v>-24.84525272427981</v>
       </c>
       <c r="F38" t="n">
-        <v>1.02028044661662</v>
+        <v>1.225332093723734</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.917537122705612</v>
+        <v>-5.122902985080927</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4009506928002641</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.27038279880246</v>
+        <v>-24.32249016411253</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9706344342407952</v>
+        <v>1.153625551059601</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.070154096931613</v>
+        <v>-5.266014947443835</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.641443418124525</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.81118336893176</v>
+        <v>-23.86177202711219</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9411374759383864</v>
+        <v>1.129810652190501</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.188168114746931</v>
+        <v>-5.379957259075376</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8219184453114996</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.02032972347445</v>
+        <v>-23.06748819831035</v>
       </c>
       <c r="F41" t="n">
-        <v>1.081146562527805</v>
+        <v>1.253729298587438</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.31824014347948</v>
+        <v>-5.500170783768105</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9501826243274029</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.57445825789663</v>
+        <v>-22.64147775614343</v>
       </c>
       <c r="F42" t="n">
-        <v>1.195678027787225</v>
+        <v>1.368823732869052</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.427168103122641</v>
+        <v>-5.594212795080224</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.039207271503653</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.73597481470113</v>
+        <v>-21.80265391307404</v>
       </c>
       <c r="F43" t="n">
-        <v>1.382806312304015</v>
+        <v>1.5557818174489</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.418330798704476</v>
+        <v>-5.580740815456088</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.10268407774069</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.41657499457438</v>
+        <v>-21.50390065452869</v>
       </c>
       <c r="F44" t="n">
-        <v>1.353584292361283</v>
+        <v>1.526585982111851</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.631512765876302</v>
+        <v>-5.785792462563201</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.152468101875607</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.87131985812501</v>
+        <v>-20.96034751744875</v>
       </c>
       <c r="F45" t="n">
-        <v>1.406136795967971</v>
+        <v>1.580473900608395</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.76864154584054</v>
+        <v>-5.913337676847297</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.196879818936602</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.31628477145288</v>
+        <v>-20.42272519355611</v>
       </c>
       <c r="F46" t="n">
-        <v>1.575027502626237</v>
+        <v>1.745724947076662</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.681499178126011</v>
+        <v>-5.826876108880538</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.239164493046516</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.75279205714499</v>
+        <v>-19.86991579836707</v>
       </c>
       <c r="F47" t="n">
-        <v>1.468718003551422</v>
+        <v>1.640174801566666</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.0700656341656</v>
+        <v>-6.214892688200774</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.277820373850843</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.2331323727512</v>
+        <v>-19.37496128943561</v>
       </c>
       <c r="F48" t="n">
-        <v>1.480946214405594</v>
+        <v>1.656042672610838</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.083825644452253</v>
+        <v>-6.231886497289334</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.307693202805676</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.56937880328137</v>
+        <v>-18.70772516740989</v>
       </c>
       <c r="F49" t="n">
-        <v>1.516609647346456</v>
+        <v>1.684505338988751</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.553289439750867</v>
+        <v>-6.695524217823379</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.320744826271109</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.93891895993805</v>
+        <v>-18.10121114596409</v>
       </c>
       <c r="F50" t="n">
-        <v>1.513676971509909</v>
+        <v>1.677487864665586</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.556444684735723</v>
+        <v>-6.696545417445034</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.308290513649178</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.06088366985769</v>
+        <v>-17.2345268824475</v>
       </c>
       <c r="F51" t="n">
-        <v>1.548738158520051</v>
+        <v>1.715560281329325</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.89440939029204</v>
+        <v>-7.046685964644156</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.263004955516561</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.67243504454368</v>
+        <v>-16.86364812754709</v>
       </c>
       <c r="F52" t="n">
-        <v>1.447901242033077</v>
+        <v>1.610036320425013</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.811456559486864</v>
+        <v>-6.960289858191605</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.179186513007054</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.07172091325676</v>
+        <v>-16.27950885165779</v>
       </c>
       <c r="F53" t="n">
-        <v>1.598541278529977</v>
+        <v>1.755256143545438</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.922034149288081</v>
+        <v>-7.06742417234545</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.054240167290824</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.71037335482512</v>
+        <v>-15.925204952155</v>
       </c>
       <c r="F54" t="n">
-        <v>1.343660326807254</v>
+        <v>1.494640763178039</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.293999565324361</v>
+        <v>-7.44774247759475</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.8885824776529009</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.07349828308936</v>
+        <v>-15.30510112035949</v>
       </c>
       <c r="F55" t="n">
-        <v>1.411557009344446</v>
+        <v>1.568428981994007</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.533536338116581</v>
+        <v>-7.659890152842079</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.6856516059219977</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.70299920497135</v>
+        <v>-14.92534578413239</v>
       </c>
       <c r="F56" t="n">
-        <v>1.296056713674738</v>
+        <v>1.442245367205452</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.7894515817638</v>
+        <v>-7.905383923427284</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4496386377601991</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.99920937341152</v>
+        <v>-14.23161084115501</v>
       </c>
       <c r="F57" t="n">
-        <v>1.228762277068266</v>
+        <v>1.361596781700419</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.160683828840943</v>
+        <v>-8.261324360785292</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1873637377782204</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.7520790649711</v>
+        <v>-13.99881660432627</v>
       </c>
       <c r="F58" t="n">
-        <v>1.100091124739782</v>
+        <v>1.239039734799021</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.149280433065799</v>
+        <v>-8.26594594368842</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.09316952522303748</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.21365811060512</v>
+        <v>-13.47187759955248</v>
       </c>
       <c r="F59" t="n">
-        <v>1.15210684392996</v>
+        <v>1.288004947427077</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.372045965917769</v>
+        <v>-8.473864805117872</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3827715855672151</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.06329301246789</v>
+        <v>-13.32568894602177</v>
       </c>
       <c r="F60" t="n">
-        <v>1.055891510346115</v>
+        <v>1.181315771569851</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.262175360470003</v>
+        <v>-8.373368288504784</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6724038611388649</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.66772217440798</v>
+        <v>-12.95876406657955</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9769449242105072</v>
+        <v>1.101845493320574</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.57351032204625</v>
+        <v>-8.653739953860347</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.9528187919718113</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.31522501269735</v>
+        <v>-12.61791905439806</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9969761475583481</v>
+        <v>1.115343657550393</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.826087028468828</v>
+        <v>-8.926282422116559</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.214568908339904</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.87934297418776</v>
+        <v>-12.18155260068333</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9823651375869817</v>
+        <v>1.088137852245287</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.797912392753435</v>
+        <v>-8.897610278893179</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.448152304011741</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.5912206655499</v>
+        <v>-11.90115475072208</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9123867788979559</v>
+        <v>1.022087184408779</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.956159057201377</v>
+        <v>-9.068661215520329</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.644790546096546</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.32247496511779</v>
+        <v>-11.6414558315536</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9294722341064084</v>
+        <v>1.035009287313562</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.144753679636441</v>
+        <v>-9.255449100163235</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.796831551610831</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.09059718948798</v>
+        <v>-11.41512919232868</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7263451555170285</v>
+        <v>0.8342257309328512</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.107951216348349</v>
+        <v>-9.232092431893596</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.898601345234253</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.8963205076196</v>
+        <v>-11.220629941312</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6967696433975693</v>
+        <v>0.7993478361624931</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.195918399141906</v>
+        <v>-9.315411847178341</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.948145526909536</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.73101709193997</v>
+        <v>-11.06780349024053</v>
       </c>
       <c r="F68" t="n">
-        <v>0.650946583451528</v>
+        <v>0.7431294877601213</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.09680966663004</v>
+        <v>-9.226554387791547</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.947894250735119</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.57133027417944</v>
+        <v>-10.90056241374032</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4130856254230488</v>
+        <v>0.5086594361676491</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.062363817853459</v>
+        <v>-9.188992570938634</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.903937723150913</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.46918412740829</v>
+        <v>-10.79325789964954</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5378029022933314</v>
+        <v>0.6398050337332192</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.974723942630945</v>
+        <v>-9.113698737295866</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.823439186590075</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.31383086188837</v>
+        <v>-10.63916149520242</v>
       </c>
       <c r="F71" t="n">
-        <v>0.454418025494378</v>
+        <v>0.5524793737789063</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.651893939159663</v>
+        <v>-8.779609353380701</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.715115557138052</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.27718550623438</v>
+        <v>-10.58696248377246</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4417839532521124</v>
+        <v>0.5575460949786543</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.478591126443735</v>
+        <v>-8.618115797828011</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.590622358071126</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.29466373052808</v>
+        <v>-10.59968820213462</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2916676088688813</v>
+        <v>0.3994303535591285</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.403794800308955</v>
+        <v>-8.556660528288948</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.463143425804782</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.42791718885117</v>
+        <v>-10.72987806159274</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4002551686381573</v>
+        <v>0.5047448376179731</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.185847234902742</v>
+        <v>-8.334654349001799</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.343607040378733</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.50419294520707</v>
+        <v>-10.79638696002871</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1671074396326994</v>
+        <v>0.2937885619292409</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.99621832054318</v>
+        <v>-8.150471832624397</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.239161479958303</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.87461346950802</v>
+        <v>-11.16860112981898</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2739668154268676</v>
+        <v>0.4007526761461428</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.748381027749306</v>
+        <v>-7.907295399642177</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.154375778028852</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.2237982785997</v>
+        <v>-11.52810267354994</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1816529880898571</v>
+        <v>0.3083472026892403</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.608568325702513</v>
+        <v>-7.748394120052148</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.091981871683873</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.78755283896442</v>
+        <v>-12.096544278332</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1245705476999315</v>
+        <v>0.2562136527734871</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.352666174358135</v>
+        <v>-7.493500076026582</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.052880869470328</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.2183812485771</v>
+        <v>-12.52023738289594</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0436339315323809</v>
+        <v>0.1698175463209368</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.304263930752274</v>
+        <v>-7.447755569897592</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.036854320199281</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.71543052596323</v>
+        <v>-13.0238851809143</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2012914423524462</v>
+        <v>0.357731369008231</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.965369671694195</v>
+        <v>-7.125318335511563</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.043670722352875</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.5695592710546</v>
+        <v>-13.87933624859268</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07148125967673226</v>
+        <v>0.2139124222918702</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.966731271189734</v>
+        <v>-7.117345123080951</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.074550127689722</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.23576110115583</v>
+        <v>-14.5448441866433</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1275425004450033</v>
+        <v>0.2811021204756083</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.786450261059167</v>
+        <v>-6.951544199893332</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.132081670844617</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.97313268950469</v>
+        <v>-15.29427378590938</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.03222287113257993</v>
+        <v>0.1261547163437803</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.495604753430221</v>
+        <v>-6.670622657818416</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.220914221561567</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.09527396606903</v>
+        <v>-16.40681840449074</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.04835258823358645</v>
+        <v>0.1190063189921979</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.315795066201956</v>
+        <v>-6.483009958096481</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.347531120935708</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.91895001475054</v>
+        <v>-17.22639656238279</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.01999466027840779</v>
+        <v>0.1591211348992466</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.032241971255853</v>
+        <v>-6.210493674445953</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.520598897858571</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.91566703009114</v>
+        <v>-18.23548580390883</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.1040603368251309</v>
+        <v>0.08488777778665975</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.729220621984103</v>
+        <v>-5.907027186877585</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.748148961250343</v>
       </c>
       <c r="E87" t="n">
-        <v>-18.9479820168584</v>
+        <v>-19.26456699187418</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.08980281903049118</v>
+        <v>0.1100511838484572</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.289279969593582</v>
+        <v>-5.489448187740732</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.034730479584508</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.25185754916874</v>
+        <v>-20.57447807579456</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04915888333158931</v>
+        <v>0.2421917964299985</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.10327762312118</v>
+        <v>-5.298235104737323</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.382232562262795</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.79347620878199</v>
+        <v>-22.12303565591392</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.1562855328607761</v>
+        <v>0.04118567090097813</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.762511164756734</v>
+        <v>-4.956185600694387</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.789841952197496</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.30013841980783</v>
+        <v>-23.63137368170349</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3277554231788625</v>
+        <v>-0.134643956263403</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.500521092590954</v>
+        <v>-4.697625711873139</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.255782481935677</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.76402807744974</v>
+        <v>-25.08793164975404</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3631962869714149</v>
+        <v>-0.1688803281945166</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.529559820293902</v>
+        <v>-4.728091500585836</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.771982872803035</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.41471871203741</v>
+        <v>-26.76087919917264</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5284866103482065</v>
+        <v>-0.3352573127071715</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.272021131094308</v>
+        <v>-4.458246046715019</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.324602591673439</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.40199936038301</v>
+        <v>-28.73641605186921</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.498976559742956</v>
+        <v>-0.3094916607146546</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.264283580114848</v>
+        <v>-4.463024737252249</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.893843976503584</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.53292875550802</v>
+        <v>-30.8722288759542</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4646354493891085</v>
+        <v>-0.2867372383757347</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.336186507321607</v>
+        <v>-4.534050480168614</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.460218978879761</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.73349610944818</v>
+        <v>-33.06512414042911</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.8520890596871498</v>
+        <v>-0.671611665013956</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.524650206728254</v>
+        <v>-4.708832723105656</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.998452886922613</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.86497538129255</v>
+        <v>-35.18616884690862</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.9346491214070743</v>
+        <v>-0.7653263687550311</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.697874465627132</v>
+        <v>-4.864526388499463</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.483047682439376</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.1543347331053</v>
+        <v>-37.47533181417874</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.210150450105516</v>
+        <v>-1.052008524080307</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.84084241265878</v>
+        <v>-5.030759357680859</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.891987899067746</v>
       </c>
       <c r="E98" t="n">
-        <v>-39.61507232911624</v>
+        <v>-39.93432813391173</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.53322920733079</v>
+        <v>-1.359415794804035</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.145683592025531</v>
+        <v>-5.321225188527394</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.216317568214841</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.99726920037966</v>
+        <v>-42.31190342227202</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.412609821249968</v>
+        <v>-1.241310130868824</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.482666374868717</v>
+        <v>-5.670200520773601</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.454580258197889</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.52975261596326</v>
+        <v>-44.85013435880314</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.575386422481148</v>
+        <v>-1.395367258407415</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.687639468158781</v>
+        <v>-5.872515876586795</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.615174314797888</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.99978574699183</v>
+        <v>-47.31672421418433</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.777780332111391</v>
+        <v>-1.586344679959673</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.091065687923728</v>
+        <v>-6.271268144237245</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.710665690939237</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.35376870563133</v>
+        <v>-49.66592848228661</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.87182234342351</v>
+        <v>-1.675149770135101</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.388352608550802</v>
+        <v>-6.563920389658349</v>
       </c>
     </row>
   </sheetData>
